--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/hiv-arv-treatment</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-arv-treatment</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T14:41:26+00:00</t>
+    <t>2022-11-24T14:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -445,7 +445,7 @@
     <t>artStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/art-status}
+    <t xml:space="preserve">Extension {http://jembi.org/fhir/hiv-casereporting/StructureDefinition/art-status}
 </t>
   </si>
   <si>
@@ -1214,7 +1214,7 @@
     <t>artRegimenLine</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/art-regimen-line}
+    <t xml:space="preserve">Extension {http://jembi.org/fhir/hiv-casereporting/StructureDefinition/art-regimen-line}
 </t>
   </si>
   <si>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T14:29:27+00:00</t>
+    <t>2022-11-30T18:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
